--- a/aplicaciones/www/estaticos/datos/descarga/ya9-1-detencion-no-privativa.xlsx
+++ b/aplicaciones/www/estaticos/datos/descarga/ya9-1-detencion-no-privativa.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">codmpio</t>
+    <t xml:space="preserve">coddepto</t>
   </si>
   <si>
     <t xml:space="preserve">anno</t>
